--- a/SonarLysaFX/Suivi_Quality_GateTest.xlsx
+++ b/SonarLysaFX/Suivi_Quality_GateTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="11280" windowWidth="22245" xWindow="0" yWindow="2505"/>
+    <workbookView activeTab="2" windowHeight="11280" windowWidth="22245" xWindow="0" yWindow="2505"/>
   </bookViews>
   <sheets>
     <sheet name="Anomalies closes" r:id="rId1" sheetId="38"/>
@@ -17,12 +17,12 @@
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Anomalies closes'!$A$1:$O$34</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:T36"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="615">
   <si>
     <t>Edition</t>
   </si>
@@ -1251,9 +1251,6 @@
     <t>Lot 241392</t>
   </si>
   <si>
-    <t>Lot 242634</t>
-  </si>
-  <si>
     <t>Lot 244706</t>
   </si>
   <si>
@@ -1867,6 +1864,9 @@
   </si>
   <si>
     <t>Lot 305388</t>
+  </si>
+  <si>
+    <t>JAVA - DATASTAGE</t>
   </si>
 </sst>
 </file>
@@ -3278,7 +3278,7 @@
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="502">
+  <cellXfs count="503">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4781,6 +4781,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="17" fillId="43" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="17" fillId="40" fontId="0" numFmtId="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5140,7 +5143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -5185,7 +5188,7 @@
         <v>142</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>0</v>
@@ -5194,22 +5197,22 @@
         <v>143</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>144</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M1" s="13" t="s">
         <v>145</v>
       </c>
       <c r="N1" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="O1" s="15" t="s">
         <v>490</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>491</v>
       </c>
     </row>
     <row ht="30" r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -5253,10 +5256,10 @@
         <v>222</v>
       </c>
       <c r="N2" s="66" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O2" s="66" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -5298,10 +5301,10 @@
         <v>203</v>
       </c>
       <c r="N3" s="70" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O3" s="70" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row ht="30" r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -5342,13 +5345,13 @@
         <v>314</v>
       </c>
       <c r="M4" s="62" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N4" s="68" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O4" s="68" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -5390,10 +5393,10 @@
         <v>238</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -5432,13 +5435,13 @@
         <v>314</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row ht="30" r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -5479,13 +5482,13 @@
         <v>314</v>
       </c>
       <c r="M7" s="64" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N7" s="72" t="s">
+        <v>529</v>
+      </c>
+      <c r="O7" s="72" t="s">
         <v>530</v>
-      </c>
-      <c r="O7" s="72" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -5527,10 +5530,10 @@
         <v>254</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row customFormat="1" r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -5572,10 +5575,10 @@
         <v>162</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row customFormat="1" r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -5617,10 +5620,10 @@
         <v>180</v>
       </c>
       <c r="N10" s="74" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O10" s="74" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row customFormat="1" r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -5661,33 +5664,33 @@
         <v>315</v>
       </c>
       <c r="M11" s="24" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N11" s="25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O11" s="25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row customFormat="1" r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>47</v>
@@ -5708,13 +5711,13 @@
         <v>315</v>
       </c>
       <c r="M12" s="26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N12" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O12" s="27" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row customFormat="1" r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -5756,10 +5759,10 @@
         <v>155</v>
       </c>
       <c r="N13" s="73" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O13" s="73" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row customFormat="1" r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -5801,10 +5804,10 @@
         <v>247</v>
       </c>
       <c r="N14" s="42" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O14" s="42" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row customFormat="1" r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -5848,10 +5851,10 @@
         <v>328</v>
       </c>
       <c r="N15" s="46" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O15" s="46" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row customFormat="1" ht="30" r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -5892,13 +5895,13 @@
         <v>314</v>
       </c>
       <c r="M16" s="31" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N16" s="36" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O16" s="36" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row customFormat="1" ht="30" r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -5940,10 +5943,10 @@
         <v>218</v>
       </c>
       <c r="N17" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O17" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row customFormat="1" r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -5985,10 +5988,10 @@
         <v>155</v>
       </c>
       <c r="N18" s="71" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O18" s="71" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row customFormat="1" r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -6030,10 +6033,10 @@
         <v>155</v>
       </c>
       <c r="N19" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O19" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row customFormat="1" r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -6077,10 +6080,10 @@
         <v>191</v>
       </c>
       <c r="N20" s="30" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O20" s="30" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row customFormat="1" ht="30" r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -6119,39 +6122,39 @@
         <v>315</v>
       </c>
       <c r="M21" s="63" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N21" s="75" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O21" s="75" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row customFormat="1" r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H22" s="44" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I22" s="44" t="s">
         <v>267</v>
@@ -6167,10 +6170,10 @@
         <v>268</v>
       </c>
       <c r="N22" s="44" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O22" s="44" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row customFormat="1" r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -6212,10 +6215,10 @@
         <v>243</v>
       </c>
       <c r="N23" s="40" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O23" s="40" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row customFormat="1" r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -6259,33 +6262,33 @@
         <v>318</v>
       </c>
       <c r="N24" s="32" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O24" s="32" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row customFormat="1" r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D25" s="45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G25" s="45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H25" s="55" t="s">
         <v>401</v>
@@ -6304,10 +6307,10 @@
         <v>398</v>
       </c>
       <c r="N25" s="55" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O25" s="55" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row customFormat="1" r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -6348,13 +6351,13 @@
         <v>314</v>
       </c>
       <c r="M26" s="47" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N26" s="49" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O26" s="49" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row customFormat="1" r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -6395,33 +6398,33 @@
         <v>314</v>
       </c>
       <c r="M27" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N27" s="50" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O27" s="50" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row customFormat="1" r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="63" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C28" s="63" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D28" s="63" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E28" s="63" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F28" s="63" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G28" s="63" t="s">
         <v>57</v>
@@ -6442,13 +6445,13 @@
         <v>314</v>
       </c>
       <c r="M28" s="63" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N28" s="69" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O28" s="69" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row customFormat="1" ht="30" r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -6487,36 +6490,36 @@
         <v>314</v>
       </c>
       <c r="M29" s="63" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N29" s="67" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O29" s="67" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row customFormat="1" r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D30" s="52" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E30" s="52" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F30" s="52" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G30" s="52" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H30" s="57" t="s">
         <v>403</v>
@@ -6535,10 +6538,10 @@
         <v>393</v>
       </c>
       <c r="N30" s="57" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O30" s="57" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row customFormat="1" r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -6579,27 +6582,27 @@
         <v>314</v>
       </c>
       <c r="M31" s="54" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N31" s="51" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O31" s="51" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row customFormat="1" r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C32" s="56" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D32" s="56" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E32" s="56" t="s">
         <v>382</v>
@@ -6627,39 +6630,39 @@
         <v>384</v>
       </c>
       <c r="N32" s="53" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O32" s="53" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row customFormat="1" r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="58" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B33" s="58" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D33" s="58" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E33" s="58" t="s">
         <v>90</v>
       </c>
       <c r="F33" s="58" t="s">
+        <v>527</v>
+      </c>
+      <c r="G33" s="58" t="s">
         <v>528</v>
       </c>
-      <c r="G33" s="58" t="s">
-        <v>529</v>
-      </c>
       <c r="H33" s="61" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I33" s="61" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J33" s="61" t="s">
         <v>334</v>
@@ -6672,39 +6675,39 @@
         <v>328</v>
       </c>
       <c r="N33" s="61" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O33" s="61" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row customFormat="1" r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="60" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B34" s="60" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C34" s="60" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D34" s="60" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E34" s="60" t="s">
+        <v>513</v>
+      </c>
+      <c r="F34" s="60" t="s">
         <v>514</v>
       </c>
-      <c r="F34" s="60" t="s">
+      <c r="G34" s="60" t="s">
         <v>515</v>
       </c>
-      <c r="G34" s="60" t="s">
-        <v>516</v>
-      </c>
       <c r="H34" s="59" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I34" s="59" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J34" s="59" t="s">
         <v>334</v>
@@ -6714,36 +6717,36 @@
         <v>314</v>
       </c>
       <c r="M34" s="60" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N34" s="59" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O34" s="59" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row customFormat="1" r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="76" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C35" s="76" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D35" s="76" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E35" s="76" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F35" s="76" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G35" s="76" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H35" s="77" t="s">
         <v>397</v>
@@ -6762,33 +6765,33 @@
         <v>398</v>
       </c>
       <c r="N35" s="77" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O35" s="77" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row customFormat="1" r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="78" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B36" s="78" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C36" s="78" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D36" s="78" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E36" s="78" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F36" s="78" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G36" s="78" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H36" s="79" t="s">
         <v>397</v>
@@ -6807,10 +6810,10 @@
         <v>398</v>
       </c>
       <c r="N36" s="79" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O36" s="79" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row customFormat="1" r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -6818,28 +6821,28 @@
         <v>195</v>
       </c>
       <c r="B37" s="80" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C37" s="80" t="s">
         <v>195</v>
       </c>
       <c r="D37" s="80" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E37" s="80" t="s">
+        <v>559</v>
+      </c>
+      <c r="F37" s="80" t="s">
         <v>560</v>
       </c>
-      <c r="F37" s="80" t="s">
+      <c r="G37" s="80" t="s">
         <v>561</v>
       </c>
-      <c r="G37" s="80" t="s">
-        <v>562</v>
-      </c>
       <c r="H37" s="81" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I37" s="81" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J37" s="81" t="s">
         <v>334</v>
@@ -6852,10 +6855,10 @@
         <v>328</v>
       </c>
       <c r="N37" s="81" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O37" s="81" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row customFormat="1" r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -6899,10 +6902,10 @@
         <v>328</v>
       </c>
       <c r="N38" s="83" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O38" s="83" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row customFormat="1" r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -6943,13 +6946,13 @@
         <v>314</v>
       </c>
       <c r="M39" s="84" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N39" s="85" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O39" s="85" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row customFormat="1" r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -6963,22 +6966,22 @@
         <v>195</v>
       </c>
       <c r="D40" s="86" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E40" s="86" t="s">
+        <v>479</v>
+      </c>
+      <c r="F40" s="86" t="s">
         <v>480</v>
       </c>
-      <c r="F40" s="86" t="s">
+      <c r="G40" s="86" t="s">
         <v>481</v>
-      </c>
-      <c r="G40" s="86" t="s">
-        <v>482</v>
       </c>
       <c r="H40" s="87" t="s">
         <v>401</v>
       </c>
       <c r="I40" s="87" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J40" s="87" t="s">
         <v>329</v>
@@ -6990,10 +6993,10 @@
         <v>314</v>
       </c>
       <c r="M40" s="86" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O40" s="87" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row customFormat="1" r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -7007,13 +7010,13 @@
         <v>151</v>
       </c>
       <c r="D41" s="88" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E41" s="88" t="s">
+        <v>552</v>
+      </c>
+      <c r="F41" s="88" t="s">
         <v>553</v>
-      </c>
-      <c r="F41" s="88" t="s">
-        <v>554</v>
       </c>
       <c r="G41" s="88" t="s">
         <v>287</v>
@@ -7022,7 +7025,7 @@
         <v>392</v>
       </c>
       <c r="I41" s="89" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J41" s="89" t="s">
         <v>313</v>
@@ -7034,13 +7037,13 @@
         <v>314</v>
       </c>
       <c r="M41" s="89" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N41" s="88" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O41" s="89" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row customFormat="1" r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -7081,11 +7084,11 @@
         <v>314</v>
       </c>
       <c r="M42" s="472" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="N42" s="237"/>
       <c r="O42" s="236" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row customFormat="1" r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -7124,11 +7127,11 @@
         <v>314</v>
       </c>
       <c r="M43" s="472" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="N43" s="276"/>
       <c r="O43" s="275" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row customFormat="1" r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -7167,11 +7170,11 @@
         <v>314</v>
       </c>
       <c r="M44" s="472" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N44" s="279"/>
       <c r="O44" s="278" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row customFormat="1" r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -7216,7 +7219,7 @@
       </c>
       <c r="N45" s="285"/>
       <c r="O45" s="284" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row customFormat="1" r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -7224,7 +7227,7 @@
         <v>195</v>
       </c>
       <c r="B46" s="295" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C46" s="295" t="s">
         <v>195</v>
@@ -7257,11 +7260,11 @@
         <v>314</v>
       </c>
       <c r="M46" s="472" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N46" s="297"/>
       <c r="O46" s="296" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row customFormat="1" ht="30" r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -7269,7 +7272,7 @@
         <v>195</v>
       </c>
       <c r="B47" s="298" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C47" s="298" t="s">
         <v>195</v>
@@ -7300,11 +7303,11 @@
         <v>314</v>
       </c>
       <c r="M47" s="472" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N47" s="300"/>
       <c r="O47" s="299" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row customFormat="1" r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -7349,7 +7352,7 @@
       </c>
       <c r="N48" s="309"/>
       <c r="O48" s="308" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row customFormat="1" r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -7390,22 +7393,22 @@
         <v>315</v>
       </c>
       <c r="M49" s="472" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N49" s="312"/>
       <c r="O49" s="311" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row customFormat="1" ht="30" r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="313" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B50" s="313" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C50" s="313" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D50" s="313" t="s">
         <v>233</v>
@@ -7437,7 +7440,7 @@
       </c>
       <c r="N50" s="315"/>
       <c r="O50" s="314" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row customFormat="1" ht="30" r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -7478,11 +7481,11 @@
         <v>314</v>
       </c>
       <c r="M51" s="472" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N51" s="330"/>
       <c r="O51" s="329" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row customFormat="1" r="52" spans="1:16" x14ac:dyDescent="0.25"/>
@@ -7614,15 +7617,15 @@
         <v>0</v>
       </c>
       <c r="C1" s="90" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D1" s="90" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="91" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B2" s="92" t="s">
         <v>24</v>
@@ -7631,12 +7634,12 @@
         <v>313</v>
       </c>
       <c r="D2" s="91" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="93" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B3" s="94" t="s">
         <v>24</v>
@@ -7645,26 +7648,26 @@
         <v>406</v>
       </c>
       <c r="D3" s="93" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="95" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4" s="96" t="s">
         <v>463</v>
-      </c>
-      <c r="B4" s="96" t="s">
-        <v>464</v>
       </c>
       <c r="C4" s="95" t="s">
         <v>313</v>
       </c>
       <c r="D4" s="95" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="97" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B5" s="98" t="s">
         <v>24</v>
@@ -7673,12 +7676,12 @@
         <v>313</v>
       </c>
       <c r="D5" s="97" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="99" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B6" s="100" t="s">
         <v>24</v>
@@ -7687,12 +7690,12 @@
         <v>406</v>
       </c>
       <c r="D6" s="99" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="101" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B7" s="102" t="s">
         <v>24</v>
@@ -7701,12 +7704,12 @@
         <v>406</v>
       </c>
       <c r="D7" s="101" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="103" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B8" s="104" t="s">
         <v>24</v>
@@ -7715,26 +7718,26 @@
         <v>406</v>
       </c>
       <c r="D8" s="103" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="105" t="s">
+        <v>467</v>
+      </c>
+      <c r="B9" s="106" t="s">
         <v>468</v>
-      </c>
-      <c r="B9" s="106" t="s">
-        <v>469</v>
       </c>
       <c r="C9" s="105" t="s">
         <v>313</v>
       </c>
       <c r="D9" s="105" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="107" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B10" s="108" t="s">
         <v>24</v>
@@ -7743,26 +7746,26 @@
         <v>313</v>
       </c>
       <c r="D10" s="107" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="109" t="s">
+        <v>470</v>
+      </c>
+      <c r="B11" s="110" t="s">
         <v>471</v>
-      </c>
-      <c r="B11" s="110" t="s">
-        <v>472</v>
       </c>
       <c r="C11" s="109" t="s">
         <v>313</v>
       </c>
       <c r="D11" s="109" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="111" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B12" s="112" t="s">
         <v>24</v>
@@ -7771,7 +7774,7 @@
         <v>313</v>
       </c>
       <c r="D12" s="111" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -7779,13 +7782,13 @@
         <v>385</v>
       </c>
       <c r="B13" s="114" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C13" s="113" t="s">
         <v>329</v>
       </c>
       <c r="D13" s="113" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -7797,8 +7800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7816,10 +7819,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="115" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D1" s="115" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7833,7 +7836,7 @@
         <v>406</v>
       </c>
       <c r="D2" s="116" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7847,12 +7850,12 @@
         <v>406</v>
       </c>
       <c r="D3" s="118" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
-        <v>409</v>
+      <c r="A4" s="502">
+        <v>242634</v>
       </c>
       <c r="B4" s="121" t="s">
         <v>18</v>
@@ -7861,12 +7864,12 @@
         <v>406</v>
       </c>
       <c r="D4" s="120" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="122" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B5" s="123" t="s">
         <v>18</v>
@@ -7874,13 +7877,13 @@
       <c r="C5" s="122" t="s">
         <v>313</v>
       </c>
-      <c r="D5" s="122" t="s">
-        <v>474</v>
+      <c r="D5" s="502">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="124" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B6" s="125" t="s">
         <v>18</v>
@@ -7889,12 +7892,12 @@
         <v>406</v>
       </c>
       <c r="D6" s="124" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="126" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B7" s="127" t="s">
         <v>18</v>
@@ -7903,12 +7906,12 @@
         <v>406</v>
       </c>
       <c r="D7" s="126" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="128" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B8" s="129" t="s">
         <v>18</v>
@@ -7917,26 +7920,26 @@
         <v>406</v>
       </c>
       <c r="D8" s="128" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="130" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B9" s="131" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C9" s="130" t="s">
         <v>406</v>
       </c>
       <c r="D9" s="130" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="132" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B10" s="133" t="s">
         <v>18</v>
@@ -7945,40 +7948,40 @@
         <v>406</v>
       </c>
       <c r="D10" s="132" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="134" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B11" s="135" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C11" s="134" t="s">
         <v>313</v>
       </c>
       <c r="D11" s="134" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="136" t="s">
+        <v>417</v>
+      </c>
+      <c r="B12" s="137" t="s">
         <v>418</v>
-      </c>
-      <c r="B12" s="137" t="s">
-        <v>419</v>
       </c>
       <c r="C12" s="136" t="s">
         <v>406</v>
       </c>
       <c r="D12" s="136" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="138" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B13" s="139" t="s">
         <v>34</v>
@@ -7987,12 +7990,12 @@
         <v>406</v>
       </c>
       <c r="D13" s="138" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="140" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B14" s="141" t="s">
         <v>34</v>
@@ -8001,12 +8004,12 @@
         <v>406</v>
       </c>
       <c r="D14" s="140" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="142" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B15" s="143" t="s">
         <v>392</v>
@@ -8015,54 +8018,54 @@
         <v>313</v>
       </c>
       <c r="D15" s="142" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="144" t="s">
+        <v>422</v>
+      </c>
+      <c r="B16" s="145" t="s">
         <v>423</v>
-      </c>
-      <c r="B16" s="145" t="s">
-        <v>424</v>
       </c>
       <c r="C16" s="144" t="s">
         <v>406</v>
       </c>
       <c r="D16" s="144" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="146" t="s">
+        <v>424</v>
+      </c>
+      <c r="B17" s="147" t="s">
         <v>425</v>
-      </c>
-      <c r="B17" s="147" t="s">
-        <v>426</v>
       </c>
       <c r="C17" s="146" t="s">
         <v>406</v>
       </c>
       <c r="D17" s="146" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="148" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B18" s="149" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C18" s="148" t="s">
         <v>313</v>
       </c>
       <c r="D18" s="148" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="150" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B19" s="151" t="s">
         <v>34</v>
@@ -8071,12 +8074,12 @@
         <v>313</v>
       </c>
       <c r="D19" s="150" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B20" s="153" t="s">
         <v>392</v>
@@ -8085,12 +8088,12 @@
         <v>313</v>
       </c>
       <c r="D20" s="152" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="154" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B21" s="155" t="s">
         <v>34</v>
@@ -8099,138 +8102,138 @@
         <v>313</v>
       </c>
       <c r="D21" s="154" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="156" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B22" s="157" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C22" s="156" t="s">
         <v>406</v>
       </c>
       <c r="D22" s="156" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="158" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B23" s="159" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C23" s="158" t="s">
         <v>313</v>
       </c>
       <c r="D23" s="158" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="160" t="s">
+        <v>432</v>
+      </c>
+      <c r="B24" s="161" t="s">
         <v>433</v>
-      </c>
-      <c r="B24" s="161" t="s">
-        <v>434</v>
       </c>
       <c r="C24" s="160" t="s">
         <v>406</v>
       </c>
       <c r="D24" s="160" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="162" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B25" s="163" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C25" s="162" t="s">
         <v>313</v>
       </c>
       <c r="D25" s="162" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="164" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B26" s="165" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C26" s="164" t="s">
         <v>406</v>
       </c>
       <c r="D26" s="164" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="166" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B27" s="167" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C27" s="166" t="s">
         <v>406</v>
       </c>
       <c r="D27" s="166" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="168" t="s">
+        <v>437</v>
+      </c>
+      <c r="B28" s="169" t="s">
         <v>438</v>
-      </c>
-      <c r="B28" s="169" t="s">
-        <v>439</v>
       </c>
       <c r="C28" s="168" t="s">
         <v>406</v>
       </c>
       <c r="D28" s="168" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="170" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B29" s="171" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C29" s="170" t="s">
         <v>406</v>
       </c>
       <c r="D29" s="170" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="172" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B30" s="173" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C30" s="172" t="s">
         <v>313</v>
       </c>
       <c r="D30" s="172" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="174" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B31" s="175" t="s">
         <v>337</v>
@@ -8239,12 +8242,12 @@
         <v>406</v>
       </c>
       <c r="D31" s="174" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="176" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B32" s="177" t="s">
         <v>337</v>
@@ -8253,40 +8256,40 @@
         <v>406</v>
       </c>
       <c r="D32" s="176" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="178" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B33" s="179" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C33" s="178" t="s">
         <v>313</v>
       </c>
       <c r="D33" s="178" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="180" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B34" s="181" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C34" s="180" t="s">
         <v>313</v>
       </c>
       <c r="D34" s="180" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="182" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B35" s="183" t="s">
         <v>337</v>
@@ -8295,26 +8298,26 @@
         <v>406</v>
       </c>
       <c r="D35" s="182" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="184" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B36" s="185" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C36" s="184" t="s">
         <v>313</v>
       </c>
       <c r="D36" s="184" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="186" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B37" s="187" t="s">
         <v>337</v>
@@ -8323,12 +8326,12 @@
         <v>313</v>
       </c>
       <c r="D37" s="186" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="188" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B38" s="189" t="s">
         <v>403</v>
@@ -8337,12 +8340,12 @@
         <v>313</v>
       </c>
       <c r="D38" s="188" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="190" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B39" s="191" t="s">
         <v>337</v>
@@ -8351,12 +8354,12 @@
         <v>313</v>
       </c>
       <c r="D39" s="190" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="192" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B40" s="193" t="s">
         <v>337</v>
@@ -8365,12 +8368,12 @@
         <v>406</v>
       </c>
       <c r="D40" s="192" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="194" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B41" s="195" t="s">
         <v>337</v>
@@ -8379,12 +8382,12 @@
         <v>313</v>
       </c>
       <c r="D41" s="194" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="196" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B42" s="197" t="s">
         <v>337</v>
@@ -8393,12 +8396,12 @@
         <v>313</v>
       </c>
       <c r="D42" s="196" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="198" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B43" s="199" t="s">
         <v>337</v>
@@ -8407,12 +8410,12 @@
         <v>406</v>
       </c>
       <c r="D43" s="198" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="200" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B44" s="201" t="s">
         <v>337</v>
@@ -8421,12 +8424,12 @@
         <v>313</v>
       </c>
       <c r="D44" s="200" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="202" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B45" s="203" t="s">
         <v>337</v>
@@ -8435,12 +8438,12 @@
         <v>313</v>
       </c>
       <c r="D45" s="202" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="204" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B46" s="205" t="s">
         <v>337</v>
@@ -8449,26 +8452,26 @@
         <v>313</v>
       </c>
       <c r="D46" s="204" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="206" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B47" s="207" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C47" s="206" t="s">
         <v>406</v>
       </c>
       <c r="D47" s="206" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="208" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B48" s="209" t="s">
         <v>337</v>
@@ -8477,26 +8480,26 @@
         <v>406</v>
       </c>
       <c r="D48" s="208" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="210" t="s">
+        <v>458</v>
+      </c>
+      <c r="B49" s="211" t="s">
         <v>459</v>
-      </c>
-      <c r="B49" s="211" t="s">
-        <v>460</v>
       </c>
       <c r="C49" s="210" t="s">
         <v>313</v>
       </c>
       <c r="D49" s="210" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="212" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B50" s="213" t="s">
         <v>401</v>
@@ -8505,25 +8508,26 @@
         <v>329</v>
       </c>
       <c r="D50" s="212" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="210" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B51" s="472" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C51" s="210" t="s">
         <v>313</v>
       </c>
       <c r="D51" s="210" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="0" horizontalDpi="200" orientation="portrait" r:id="rId1" verticalDpi="200"/>
 </worksheet>
 </file>
 
@@ -8548,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="214" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D1" s="214" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -8609,7 +8613,7 @@
         <v>142</v>
       </c>
       <c r="G1" s="221" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1" s="222" t="s">
         <v>0</v>
@@ -8618,34 +8622,34 @@
         <v>143</v>
       </c>
       <c r="J1" s="224" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K1" s="225" t="s">
         <v>144</v>
       </c>
       <c r="L1" s="231" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="M1" s="226" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N1" s="227" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O1" s="228" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P1" s="229" t="s">
         <v>145</v>
       </c>
       <c r="Q1" s="230" t="s">
+        <v>489</v>
+      </c>
+      <c r="R1" s="231" t="s">
         <v>490</v>
       </c>
-      <c r="R1" s="231" t="s">
-        <v>491</v>
-      </c>
       <c r="S1" s="231" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -8691,13 +8695,13 @@
         <v>43158</v>
       </c>
       <c r="P2" s="232" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="Q2" s="233" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="R2" s="233" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -8743,13 +8747,13 @@
         <v>43165</v>
       </c>
       <c r="P3" s="238" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Q3" s="239" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R3" s="239" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -8796,10 +8800,10 @@
         <v>155</v>
       </c>
       <c r="Q4" s="242" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R4" s="242" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -8848,10 +8852,10 @@
         <v>155</v>
       </c>
       <c r="Q5" s="245" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R5" s="245" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -8900,10 +8904,10 @@
         <v>167</v>
       </c>
       <c r="Q6" s="248" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R6" s="248" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -8950,10 +8954,10 @@
         <v>155</v>
       </c>
       <c r="Q7" s="251" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R7" s="251" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -9002,10 +9006,10 @@
         <v>317</v>
       </c>
       <c r="Q8" s="254" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R8" s="254" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -9052,21 +9056,21 @@
         <v>155</v>
       </c>
       <c r="Q9" s="257" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R9" s="257" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row ht="30" r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="259" t="s">
+        <v>583</v>
+      </c>
+      <c r="B10" s="259" t="s">
         <v>584</v>
       </c>
-      <c r="B10" s="259" t="s">
-        <v>585</v>
-      </c>
       <c r="C10" s="259" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D10" s="259" t="s">
         <v>178</v>
@@ -9099,13 +9103,16 @@
       </c>
       <c r="O10" s="261"/>
       <c r="P10" s="259" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q10" s="260" t="s">
+        <v>529</v>
+      </c>
+      <c r="R10" s="260" t="s">
         <v>530</v>
       </c>
-      <c r="R10" s="260" t="s">
-        <v>531</v>
+      <c r="S10" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -9151,13 +9158,13 @@
         <v>43165</v>
       </c>
       <c r="P11" s="262" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="Q11" s="263" t="s">
+        <v>529</v>
+      </c>
+      <c r="R11" s="263" t="s">
         <v>530</v>
-      </c>
-      <c r="R11" s="263" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -9204,10 +9211,10 @@
         <v>194</v>
       </c>
       <c r="Q12" s="266" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R12" s="266" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -9254,10 +9261,10 @@
         <v>319</v>
       </c>
       <c r="Q13" s="269" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R13" s="269" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -9304,10 +9311,10 @@
         <v>207</v>
       </c>
       <c r="Q14" s="272" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R14" s="272" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -9351,13 +9358,13 @@
         <v>43165</v>
       </c>
       <c r="P15" s="280" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="Q15" s="281" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R15" s="281" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row ht="30" r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -9365,7 +9372,7 @@
         <v>195</v>
       </c>
       <c r="B16" s="286" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C16" s="286" t="s">
         <v>195</v>
@@ -9404,10 +9411,10 @@
         <v>216</v>
       </c>
       <c r="Q16" s="287" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R16" s="287" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row ht="30" r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -9415,7 +9422,7 @@
         <v>195</v>
       </c>
       <c r="B17" s="289" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C17" s="289" t="s">
         <v>195</v>
@@ -9454,10 +9461,10 @@
         <v>218</v>
       </c>
       <c r="Q17" s="290" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R17" s="290" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row ht="30" r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -9465,7 +9472,7 @@
         <v>195</v>
       </c>
       <c r="B18" s="292" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C18" s="292" t="s">
         <v>195</v>
@@ -9504,10 +9511,10 @@
         <v>323</v>
       </c>
       <c r="Q18" s="293" t="s">
+        <v>529</v>
+      </c>
+      <c r="R18" s="293" t="s">
         <v>530</v>
-      </c>
-      <c r="R18" s="293" t="s">
-        <v>531</v>
       </c>
     </row>
     <row ht="30" r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -9515,7 +9522,7 @@
         <v>195</v>
       </c>
       <c r="B19" s="301" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C19" s="301" t="s">
         <v>195</v>
@@ -9556,21 +9563,21 @@
         <v>155</v>
       </c>
       <c r="Q19" s="302" t="s">
+        <v>529</v>
+      </c>
+      <c r="R19" s="302" t="s">
         <v>530</v>
-      </c>
-      <c r="R19" s="302" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="304" t="s">
+        <v>583</v>
+      </c>
+      <c r="B20" s="304" t="s">
         <v>584</v>
       </c>
-      <c r="B20" s="304" t="s">
-        <v>585</v>
-      </c>
       <c r="C20" s="304" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D20" s="304" t="s">
         <v>224</v>
@@ -9604,10 +9611,10 @@
         <v>194</v>
       </c>
       <c r="Q20" s="305" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R20" s="305" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -9656,10 +9663,10 @@
         <v>155</v>
       </c>
       <c r="Q21" s="317" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R21" s="317" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -9706,21 +9713,21 @@
         <v>253</v>
       </c>
       <c r="Q22" s="320" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R22" s="320" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="322" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B23" s="322" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C23" s="322" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D23" s="322" t="s">
         <v>256</v>
@@ -9756,21 +9763,21 @@
         <v>258</v>
       </c>
       <c r="Q23" s="323" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R23" s="323" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="325" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B24" s="325" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C24" s="325" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D24" s="325" t="s">
         <v>256</v>
@@ -9808,30 +9815,30 @@
         <v>258</v>
       </c>
       <c r="Q24" s="326" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R24" s="326" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="331" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B25" s="331" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C25" s="331" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D25" s="331" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E25" s="331" t="s">
         <v>299</v>
       </c>
       <c r="F25" s="331" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G25" s="331" t="s">
         <v>263</v>
@@ -9853,33 +9860,33 @@
       </c>
       <c r="O25" s="333"/>
       <c r="P25" s="331" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q25" s="332" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R25" s="332" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="334" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B26" s="334" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C26" s="334" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D26" s="334" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E26" s="334" t="s">
         <v>49</v>
       </c>
       <c r="F26" s="334" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G26" s="334" t="s">
         <v>265</v>
@@ -9899,7 +9906,7 @@
       <c r="L26" s="335"/>
       <c r="M26" s="336"/>
       <c r="N26" s="334" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O26" s="336">
         <v>43165</v>
@@ -9908,10 +9915,10 @@
         <v>326</v>
       </c>
       <c r="Q26" s="335" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R26" s="335" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -9925,13 +9932,13 @@
         <v>195</v>
       </c>
       <c r="D27" s="337" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E27" s="337" t="s">
         <v>300</v>
       </c>
       <c r="F27" s="337" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G27" s="337" t="s">
         <v>263</v>
@@ -9951,43 +9958,43 @@
       <c r="L27" s="338"/>
       <c r="M27" s="339"/>
       <c r="N27" s="337" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O27" s="339"/>
       <c r="P27" s="337" t="s">
         <v>327</v>
       </c>
       <c r="Q27" s="338" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R27" s="338" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="340" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B28" s="340" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C28" s="340" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D28" s="340" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E28" s="340" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F28" s="340" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G28" s="340" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H28" s="341" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I28" s="341" t="s">
         <v>270</v>
@@ -9999,28 +10006,28 @@
       <c r="L28" s="341"/>
       <c r="M28" s="342"/>
       <c r="N28" s="340" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O28" s="342"/>
       <c r="P28" s="340" t="s">
         <v>268</v>
       </c>
       <c r="Q28" s="341" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R28" s="341" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="343" t="s">
+        <v>583</v>
+      </c>
+      <c r="B29" s="343" t="s">
         <v>584</v>
       </c>
-      <c r="B29" s="343" t="s">
-        <v>585</v>
-      </c>
       <c r="C29" s="343" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D29" s="343" t="s">
         <v>224</v>
@@ -10053,39 +10060,39 @@
       </c>
       <c r="O29" s="345"/>
       <c r="P29" s="343" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="Q29" s="344" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R29" s="344" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="346" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B30" s="346" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C30" s="346" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D30" s="346" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E30" s="346" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F30" s="346" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G30" s="346" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H30" s="347" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I30" s="347" t="s">
         <v>273</v>
@@ -10097,17 +10104,17 @@
       <c r="L30" s="347"/>
       <c r="M30" s="348"/>
       <c r="N30" s="346" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O30" s="348"/>
       <c r="P30" s="346" t="s">
         <v>274</v>
       </c>
       <c r="Q30" s="347" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R30" s="347" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row ht="30" r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -10115,7 +10122,7 @@
         <v>195</v>
       </c>
       <c r="B31" s="349" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C31" s="349" t="s">
         <v>195</v>
@@ -10149,13 +10156,13 @@
       </c>
       <c r="O31" s="351"/>
       <c r="P31" s="349" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q31" s="350" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R31" s="350" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row ht="30" r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -10163,7 +10170,7 @@
         <v>195</v>
       </c>
       <c r="B32" s="352" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C32" s="352" t="s">
         <v>195</v>
@@ -10191,43 +10198,43 @@
       <c r="L32" s="353"/>
       <c r="M32" s="354"/>
       <c r="N32" s="352" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O32" s="354"/>
       <c r="P32" s="352" t="s">
         <v>281</v>
       </c>
       <c r="Q32" s="353" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="R32" s="353" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="355" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B33" s="355" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C33" s="355" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D33" s="355" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E33" s="355" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F33" s="355" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G33" s="355" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H33" s="356" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I33" s="356" t="s">
         <v>51</v>
@@ -10239,43 +10246,43 @@
       <c r="L33" s="356"/>
       <c r="M33" s="357"/>
       <c r="N33" s="355" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O33" s="357"/>
       <c r="P33" s="355" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Q33" s="356" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R33" s="356" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="358" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B34" s="358" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C34" s="358" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D34" s="358" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E34" s="358" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F34" s="358" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G34" s="358" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H34" s="359" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I34" s="359" t="s">
         <v>283</v>
@@ -10285,40 +10292,40 @@
       <c r="L34" s="359"/>
       <c r="M34" s="360"/>
       <c r="N34" s="358" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O34" s="360"/>
       <c r="P34" s="358" t="s">
         <v>268</v>
       </c>
       <c r="Q34" s="359" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R34" s="359" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="361" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B35" s="361" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C35" s="361" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D35" s="361" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E35" s="361" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F35" s="361" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G35" s="361" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H35" s="362" t="s">
         <v>260</v>
@@ -10333,17 +10340,17 @@
       <c r="L35" s="362"/>
       <c r="M35" s="363"/>
       <c r="N35" s="361" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O35" s="363"/>
       <c r="P35" s="361" t="s">
         <v>282</v>
       </c>
       <c r="Q35" s="362" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R35" s="362" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -10383,17 +10390,17 @@
       <c r="L36" s="365"/>
       <c r="M36" s="366"/>
       <c r="N36" s="364" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O36" s="366"/>
       <c r="P36" s="364" t="s">
         <v>328</v>
       </c>
       <c r="Q36" s="365" t="s">
+        <v>529</v>
+      </c>
+      <c r="R36" s="365" t="s">
         <v>530</v>
-      </c>
-      <c r="R36" s="365" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -10433,37 +10440,37 @@
       <c r="L37" s="368"/>
       <c r="M37" s="369"/>
       <c r="N37" s="367" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O37" s="369"/>
       <c r="P37" s="367" t="s">
         <v>330</v>
       </c>
       <c r="Q37" s="368" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="R37" s="368" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="370" t="s">
+        <v>583</v>
+      </c>
+      <c r="B38" s="370" t="s">
         <v>584</v>
       </c>
-      <c r="B38" s="370" t="s">
-        <v>585</v>
-      </c>
       <c r="C38" s="370" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D38" s="370" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E38" s="370" t="s">
         <v>16</v>
       </c>
       <c r="F38" s="370" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G38" s="370" t="s">
         <v>182</v>
@@ -10487,33 +10494,33 @@
       </c>
       <c r="O38" s="372"/>
       <c r="P38" s="370" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q38" s="371" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R38" s="371" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="373" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B39" s="373" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C39" s="373" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D39" s="373" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E39" s="373" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F39" s="373" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G39" s="373" t="s">
         <v>263</v>
@@ -10540,30 +10547,30 @@
         <v>331</v>
       </c>
       <c r="Q39" s="374" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R39" s="374" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="376" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B40" s="376" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C40" s="376" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D40" s="376" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E40" s="376" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F40" s="376" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G40" s="376" t="s">
         <v>295</v>
@@ -10590,10 +10597,10 @@
         <v>328</v>
       </c>
       <c r="Q40" s="377" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R40" s="377" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -10637,13 +10644,13 @@
       </c>
       <c r="O41" s="381"/>
       <c r="P41" s="379" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q41" s="380" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R41" s="380" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row ht="30" r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -10651,7 +10658,7 @@
         <v>195</v>
       </c>
       <c r="B42" s="382" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C42" s="382" t="s">
         <v>195</v>
@@ -10687,13 +10694,13 @@
       </c>
       <c r="O42" s="384"/>
       <c r="P42" s="382" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q42" s="383" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="R42" s="383" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -10737,13 +10744,13 @@
       </c>
       <c r="O43" s="387"/>
       <c r="P43" s="385" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q43" s="386" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R43" s="386" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -10757,13 +10764,13 @@
         <v>151</v>
       </c>
       <c r="D44" s="388" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E44" s="388" t="s">
         <v>35</v>
       </c>
       <c r="F44" s="388" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G44" s="388" t="s">
         <v>64</v>
@@ -10787,33 +10794,33 @@
       </c>
       <c r="O44" s="390"/>
       <c r="P44" s="388" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q44" s="389" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R44" s="389" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="391" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B45" s="391" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C45" s="391" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D45" s="391" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E45" s="391" t="s">
         <v>357</v>
       </c>
       <c r="F45" s="391" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G45" s="391" t="s">
         <v>358</v>
@@ -10837,33 +10844,33 @@
       </c>
       <c r="O45" s="393"/>
       <c r="P45" s="391" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q45" s="392" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R45" s="392" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="394" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B46" s="394" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C46" s="394" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D46" s="394" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E46" s="394" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F46" s="394" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G46" s="394" t="s">
         <v>359</v>
@@ -10887,33 +10894,33 @@
       </c>
       <c r="O46" s="396"/>
       <c r="P46" s="394" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q46" s="395" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="R46" s="395" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="397" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B47" s="397" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C47" s="397" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D47" s="397" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E47" s="397" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F47" s="397" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G47" s="397" t="s">
         <v>360</v>
@@ -10937,13 +10944,13 @@
       </c>
       <c r="O47" s="399"/>
       <c r="P47" s="397" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q47" s="398" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R47" s="398" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -10987,13 +10994,13 @@
       </c>
       <c r="O48" s="402"/>
       <c r="P48" s="400" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q48" s="401" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R48" s="401" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -11007,7 +11014,7 @@
         <v>380</v>
       </c>
       <c r="D49" s="403" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E49" s="403" t="s">
         <v>364</v>
@@ -11037,13 +11044,13 @@
       </c>
       <c r="O49" s="405"/>
       <c r="P49" s="403" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q49" s="404" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R49" s="404" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -11087,13 +11094,13 @@
       </c>
       <c r="O50" s="408"/>
       <c r="P50" s="406" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q50" s="407" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R50" s="407" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
@@ -11107,13 +11114,13 @@
         <v>146</v>
       </c>
       <c r="D51" s="409" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E51" s="409" t="s">
         <v>367</v>
       </c>
       <c r="F51" s="409" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G51" s="409" t="s">
         <v>366</v>
@@ -11131,17 +11138,17 @@
       <c r="L51" s="410"/>
       <c r="M51" s="411"/>
       <c r="N51" s="409" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O51" s="411"/>
       <c r="P51" s="409" t="s">
         <v>368</v>
       </c>
       <c r="Q51" s="410" t="s">
+        <v>529</v>
+      </c>
+      <c r="R51" s="410" t="s">
         <v>530</v>
-      </c>
-      <c r="R51" s="410" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
@@ -11185,36 +11192,36 @@
       </c>
       <c r="O52" s="414"/>
       <c r="P52" s="412" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q52" s="413" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R52" s="413" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="415" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B53" s="415" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C53" s="415" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D53" s="415" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E53" s="415" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F53" s="415" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G53" s="415" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H53" s="416" t="s">
         <v>392</v>
@@ -11229,40 +11236,40 @@
       <c r="L53" s="416"/>
       <c r="M53" s="417"/>
       <c r="N53" s="415" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O53" s="417"/>
       <c r="P53" s="415" t="s">
         <v>393</v>
       </c>
       <c r="Q53" s="416" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R53" s="416" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="418" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B54" s="418" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C54" s="418" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D54" s="418" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E54" s="418" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F54" s="418" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G54" s="418" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H54" s="419" t="s">
         <v>18</v>
@@ -11277,17 +11284,17 @@
       <c r="L54" s="419"/>
       <c r="M54" s="420"/>
       <c r="N54" s="418" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O54" s="420"/>
       <c r="P54" s="418" t="s">
         <v>395</v>
       </c>
       <c r="Q54" s="419" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R54" s="419" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -11301,22 +11308,22 @@
         <v>195</v>
       </c>
       <c r="D55" s="421" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E55" s="421" t="s">
+        <v>482</v>
+      </c>
+      <c r="F55" s="421" t="s">
         <v>483</v>
       </c>
-      <c r="F55" s="421" t="s">
+      <c r="G55" s="421" t="s">
         <v>484</v>
       </c>
-      <c r="G55" s="421" t="s">
-        <v>485</v>
-      </c>
       <c r="H55" s="422" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I55" s="422" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J55" s="422" t="s">
         <v>334</v>
@@ -11325,17 +11332,17 @@
       <c r="L55" s="422"/>
       <c r="M55" s="423"/>
       <c r="N55" s="421" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O55" s="423"/>
       <c r="P55" s="421" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q55" s="422" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R55" s="422" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -11349,13 +11356,13 @@
         <v>186</v>
       </c>
       <c r="D56" s="424" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E56" s="424" t="s">
         <v>97</v>
       </c>
       <c r="F56" s="424" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G56" s="424" t="s">
         <v>371</v>
@@ -11364,7 +11371,7 @@
         <v>392</v>
       </c>
       <c r="I56" s="425" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J56" s="425" t="s">
         <v>329</v>
@@ -11379,13 +11386,13 @@
       </c>
       <c r="O56" s="426"/>
       <c r="P56" s="424" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q56" s="425" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R56" s="425" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -11393,28 +11400,28 @@
         <v>255</v>
       </c>
       <c r="B57" s="427" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C57" s="427" t="s">
         <v>255</v>
       </c>
       <c r="D57" s="427" t="s">
+        <v>506</v>
+      </c>
+      <c r="E57" s="427" t="s">
         <v>507</v>
       </c>
-      <c r="E57" s="427" t="s">
+      <c r="F57" s="427" t="s">
         <v>508</v>
       </c>
-      <c r="F57" s="427" t="s">
+      <c r="G57" s="427" t="s">
         <v>509</v>
       </c>
-      <c r="G57" s="427" t="s">
-        <v>510</v>
-      </c>
       <c r="H57" s="428" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I57" s="428" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J57" s="428" t="s">
         <v>406</v>
@@ -11423,17 +11430,17 @@
       <c r="L57" s="428"/>
       <c r="M57" s="429"/>
       <c r="N57" s="427" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O57" s="429"/>
       <c r="P57" s="427" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q57" s="428" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="R57" s="428" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -11447,22 +11454,22 @@
         <v>171</v>
       </c>
       <c r="D58" s="430" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E58" s="430" t="s">
+        <v>510</v>
+      </c>
+      <c r="F58" s="430" t="s">
         <v>511</v>
       </c>
-      <c r="F58" s="430" t="s">
+      <c r="G58" s="430" t="s">
         <v>512</v>
       </c>
-      <c r="G58" s="430" t="s">
-        <v>513</v>
-      </c>
       <c r="H58" s="431" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I58" s="431" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J58" s="431" t="s">
         <v>406</v>
@@ -11471,17 +11478,17 @@
       <c r="L58" s="431"/>
       <c r="M58" s="432"/>
       <c r="N58" s="430" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O58" s="432"/>
       <c r="P58" s="430" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q58" s="431" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R58" s="431" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -11489,28 +11496,28 @@
         <v>255</v>
       </c>
       <c r="B59" s="433" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C59" s="433" t="s">
         <v>255</v>
       </c>
       <c r="D59" s="433" t="s">
+        <v>506</v>
+      </c>
+      <c r="E59" s="433" t="s">
         <v>507</v>
       </c>
-      <c r="E59" s="433" t="s">
+      <c r="F59" s="433" t="s">
         <v>508</v>
       </c>
-      <c r="F59" s="433" t="s">
+      <c r="G59" s="433" t="s">
         <v>509</v>
       </c>
-      <c r="G59" s="433" t="s">
-        <v>510</v>
-      </c>
       <c r="H59" s="434" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I59" s="434" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J59" s="434" t="s">
         <v>406</v>
@@ -11519,17 +11526,17 @@
       <c r="L59" s="434"/>
       <c r="M59" s="435"/>
       <c r="N59" s="433" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O59" s="435"/>
       <c r="P59" s="433" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q59" s="434" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="R59" s="434" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
@@ -11543,22 +11550,22 @@
         <v>380</v>
       </c>
       <c r="D60" s="436" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E60" s="436" t="s">
+        <v>516</v>
+      </c>
+      <c r="F60" s="436" t="s">
         <v>517</v>
       </c>
-      <c r="F60" s="436" t="s">
+      <c r="G60" s="436" t="s">
         <v>518</v>
-      </c>
-      <c r="G60" s="436" t="s">
-        <v>519</v>
       </c>
       <c r="H60" s="437" t="s">
         <v>24</v>
       </c>
       <c r="I60" s="437" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J60" s="437" t="s">
         <v>313</v>
@@ -11567,17 +11574,17 @@
       <c r="L60" s="437"/>
       <c r="M60" s="438"/>
       <c r="N60" s="436" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O60" s="438"/>
       <c r="P60" s="436" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q60" s="437" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R60" s="437" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -11591,22 +11598,22 @@
         <v>195</v>
       </c>
       <c r="D61" s="439" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E61" s="439" t="s">
+        <v>519</v>
+      </c>
+      <c r="F61" s="439" t="s">
         <v>520</v>
       </c>
-      <c r="F61" s="439" t="s">
+      <c r="G61" s="439" t="s">
         <v>521</v>
-      </c>
-      <c r="G61" s="439" t="s">
-        <v>522</v>
       </c>
       <c r="H61" s="440" t="s">
         <v>24</v>
       </c>
       <c r="I61" s="440" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J61" s="440" t="s">
         <v>313</v>
@@ -11615,17 +11622,17 @@
       <c r="L61" s="440"/>
       <c r="M61" s="441"/>
       <c r="N61" s="439" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O61" s="441"/>
       <c r="P61" s="439" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q61" s="440" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R61" s="440" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -11639,22 +11646,22 @@
         <v>151</v>
       </c>
       <c r="D62" s="442" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E62" s="442" t="s">
+        <v>522</v>
+      </c>
+      <c r="F62" s="442" t="s">
         <v>523</v>
       </c>
-      <c r="F62" s="442" t="s">
-        <v>524</v>
-      </c>
       <c r="G62" s="442" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H62" s="443" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I62" s="443" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J62" s="443" t="s">
         <v>329</v>
@@ -11669,13 +11676,13 @@
       </c>
       <c r="O62" s="444"/>
       <c r="P62" s="442" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q62" s="443" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R62" s="443" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
@@ -11689,22 +11696,22 @@
         <v>151</v>
       </c>
       <c r="D63" s="445" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E63" s="445" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F63" s="445" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G63" s="445" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H63" s="446" t="s">
+        <v>501</v>
+      </c>
+      <c r="I63" s="446" t="s">
         <v>502</v>
-      </c>
-      <c r="I63" s="446" t="s">
-        <v>503</v>
       </c>
       <c r="J63" s="446" t="s">
         <v>334</v>
@@ -11719,33 +11726,33 @@
       </c>
       <c r="O63" s="447"/>
       <c r="P63" s="445" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q63" s="446" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R63" s="446" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="448" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B64" s="448" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C64" s="448" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D64" s="448" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E64" s="448" t="s">
+        <v>525</v>
+      </c>
+      <c r="F64" s="448" t="s">
         <v>526</v>
-      </c>
-      <c r="F64" s="448" t="s">
-        <v>527</v>
       </c>
       <c r="G64" s="448" t="s">
         <v>62</v>
@@ -11754,7 +11761,7 @@
         <v>24</v>
       </c>
       <c r="I64" s="449" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J64" s="449" t="s">
         <v>329</v>
@@ -11763,17 +11770,17 @@
       <c r="L64" s="449"/>
       <c r="M64" s="450"/>
       <c r="N64" s="448" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O64" s="450"/>
       <c r="P64" s="448" t="s">
         <v>328</v>
       </c>
       <c r="Q64" s="449" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R64" s="449" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -11787,19 +11794,19 @@
         <v>151</v>
       </c>
       <c r="D65" s="451" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E65" s="451" t="s">
         <v>86</v>
       </c>
       <c r="F65" s="451" t="s">
+        <v>531</v>
+      </c>
+      <c r="G65" s="451" t="s">
         <v>532</v>
       </c>
-      <c r="G65" s="451" t="s">
-        <v>533</v>
-      </c>
       <c r="H65" s="452" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I65" s="452" t="s">
         <v>8</v>
@@ -11813,17 +11820,17 @@
       <c r="L65" s="452"/>
       <c r="M65" s="453"/>
       <c r="N65" s="451" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O65" s="453"/>
       <c r="P65" s="451" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Q65" s="452" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R65" s="452" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
@@ -11837,13 +11844,13 @@
         <v>380</v>
       </c>
       <c r="D66" s="454" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E66" s="454" t="s">
         <v>297</v>
       </c>
       <c r="F66" s="454" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G66" s="454" t="s">
         <v>59</v>
@@ -11861,17 +11868,17 @@
       <c r="L66" s="455"/>
       <c r="M66" s="456"/>
       <c r="N66" s="454" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O66" s="456"/>
       <c r="P66" s="454" t="s">
         <v>328</v>
       </c>
       <c r="Q66" s="455" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R66" s="455" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
@@ -11885,13 +11892,13 @@
         <v>151</v>
       </c>
       <c r="D67" s="457" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E67" s="457" t="s">
         <v>135</v>
       </c>
       <c r="F67" s="457" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G67" s="457" t="s">
         <v>287</v>
@@ -11909,17 +11916,17 @@
       <c r="L67" s="458"/>
       <c r="M67" s="459"/>
       <c r="N67" s="457" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O67" s="459"/>
       <c r="P67" s="457" t="s">
         <v>328</v>
       </c>
       <c r="Q67" s="458" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R67" s="458" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
@@ -11933,13 +11940,13 @@
         <v>195</v>
       </c>
       <c r="D68" s="460" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E68" s="460" t="s">
         <v>46</v>
       </c>
       <c r="F68" s="460" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G68" s="460" t="s">
         <v>47</v>
@@ -11957,17 +11964,17 @@
       <c r="L68" s="461"/>
       <c r="M68" s="462"/>
       <c r="N68" s="460" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O68" s="462"/>
       <c r="P68" s="460" t="s">
         <v>328</v>
       </c>
       <c r="Q68" s="461" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R68" s="461" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
@@ -11981,16 +11988,16 @@
         <v>171</v>
       </c>
       <c r="D69" s="463" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E69" s="463" t="s">
+        <v>537</v>
+      </c>
+      <c r="F69" s="463" t="s">
         <v>538</v>
       </c>
-      <c r="F69" s="463" t="s">
+      <c r="G69" s="463" t="s">
         <v>539</v>
-      </c>
-      <c r="G69" s="463" t="s">
-        <v>540</v>
       </c>
       <c r="H69" s="464" t="s">
         <v>24</v>
@@ -12007,17 +12014,17 @@
       <c r="L69" s="464"/>
       <c r="M69" s="465"/>
       <c r="N69" s="463" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O69" s="465"/>
       <c r="P69" s="463" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q69" s="464" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="R69" s="464" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row ht="30" r="70" spans="1:18" x14ac:dyDescent="0.25">
@@ -12025,19 +12032,19 @@
         <v>195</v>
       </c>
       <c r="B70" s="466" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C70" s="466" t="s">
         <v>195</v>
       </c>
       <c r="D70" s="466" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E70" s="466" t="s">
+        <v>540</v>
+      </c>
+      <c r="F70" s="466" t="s">
         <v>541</v>
-      </c>
-      <c r="F70" s="466" t="s">
-        <v>542</v>
       </c>
       <c r="G70" s="466" t="s">
         <v>57</v>
@@ -12055,17 +12062,17 @@
       <c r="L70" s="467"/>
       <c r="M70" s="468"/>
       <c r="N70" s="466" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O70" s="468"/>
       <c r="P70" s="466" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="Q70" s="467" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R70" s="467" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row ht="30" r="71" spans="1:18" x14ac:dyDescent="0.25">
@@ -12073,22 +12080,22 @@
         <v>195</v>
       </c>
       <c r="B71" s="469" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C71" s="469" t="s">
         <v>195</v>
       </c>
       <c r="D71" s="469" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E71" s="469" t="s">
+        <v>554</v>
+      </c>
+      <c r="F71" s="469" t="s">
         <v>555</v>
       </c>
-      <c r="F71" s="469" t="s">
+      <c r="G71" s="469" t="s">
         <v>556</v>
-      </c>
-      <c r="G71" s="469" t="s">
-        <v>557</v>
       </c>
       <c r="H71" s="470" t="s">
         <v>24</v>
@@ -12103,46 +12110,46 @@
       <c r="L71" s="470"/>
       <c r="M71" s="471"/>
       <c r="N71" s="469" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O71" s="471"/>
       <c r="P71" s="469" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q71" s="470" t="s">
+        <v>529</v>
+      </c>
+      <c r="R71" s="470" t="s">
         <v>530</v>
-      </c>
-      <c r="R71" s="470" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="472" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B72" s="472" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C72" s="472" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D72" s="472" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E72" s="472" t="s">
+        <v>557</v>
+      </c>
+      <c r="F72" s="472" t="s">
         <v>558</v>
-      </c>
-      <c r="F72" s="472" t="s">
-        <v>559</v>
       </c>
       <c r="G72" s="472" t="s">
         <v>279</v>
       </c>
       <c r="H72" s="473" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I72" s="473" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J72" s="473" t="s">
         <v>334</v>
@@ -12153,17 +12160,17 @@
       <c r="L72" s="473"/>
       <c r="M72" s="474"/>
       <c r="N72" s="472" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O72" s="474"/>
       <c r="P72" s="472" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q72" s="473" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R72" s="473" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
@@ -12177,13 +12184,13 @@
         <v>195</v>
       </c>
       <c r="D73" s="475" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E73" s="475" t="s">
         <v>46</v>
       </c>
       <c r="F73" s="475" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G73" s="475" t="s">
         <v>47</v>
@@ -12201,46 +12208,46 @@
       <c r="L73" s="476"/>
       <c r="M73" s="477"/>
       <c r="N73" s="475" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O73" s="477"/>
       <c r="P73" s="475" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="Q73" s="476" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R73" s="476" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="478" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B74" s="478" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C74" s="478" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D74" s="478" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E74" s="478" t="s">
+        <v>567</v>
+      </c>
+      <c r="F74" s="478" t="s">
         <v>568</v>
       </c>
-      <c r="F74" s="478" t="s">
+      <c r="G74" s="478" t="s">
         <v>569</v>
       </c>
-      <c r="G74" s="478" t="s">
-        <v>570</v>
-      </c>
       <c r="H74" s="479" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I74" s="479" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J74" s="479" t="s">
         <v>334</v>
@@ -12251,46 +12258,46 @@
       <c r="L74" s="479"/>
       <c r="M74" s="480"/>
       <c r="N74" s="478" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O74" s="480"/>
       <c r="P74" s="478" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q74" s="479" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R74" s="479" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="481" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B75" s="481" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C75" s="481" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D75" s="481" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E75" s="481" t="s">
+        <v>575</v>
+      </c>
+      <c r="F75" s="481" t="s">
         <v>576</v>
       </c>
-      <c r="F75" s="481" t="s">
+      <c r="G75" s="481" t="s">
         <v>577</v>
       </c>
-      <c r="G75" s="481" t="s">
-        <v>578</v>
-      </c>
       <c r="H75" s="482" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I75" s="482" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J75" s="482" t="s">
         <v>406</v>
@@ -12299,46 +12306,46 @@
       <c r="L75" s="482"/>
       <c r="M75" s="483"/>
       <c r="N75" s="481" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O75" s="483"/>
       <c r="P75" s="481" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="Q75" s="482" t="s">
+        <v>529</v>
+      </c>
+      <c r="R75" s="482" t="s">
         <v>530</v>
-      </c>
-      <c r="R75" s="482" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="484" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B76" s="484" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C76" s="484" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D76" s="484" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E76" s="484" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F76" s="484" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G76" s="484" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H76" s="485" t="s">
+        <v>571</v>
+      </c>
+      <c r="I76" s="485" t="s">
         <v>572</v>
-      </c>
-      <c r="I76" s="485" t="s">
-        <v>573</v>
       </c>
       <c r="J76" s="485" t="s">
         <v>406</v>
@@ -12347,46 +12354,46 @@
       <c r="L76" s="485"/>
       <c r="M76" s="486"/>
       <c r="N76" s="484" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O76" s="486"/>
       <c r="P76" s="484" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q76" s="485" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R76" s="485" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="487" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B77" s="487" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C77" s="487" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D77" s="487" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E77" s="487" t="s">
+        <v>585</v>
+      </c>
+      <c r="F77" s="487" t="s">
         <v>586</v>
       </c>
-      <c r="F77" s="487" t="s">
+      <c r="G77" s="487" t="s">
         <v>587</v>
       </c>
-      <c r="G77" s="487" t="s">
-        <v>588</v>
-      </c>
       <c r="H77" s="488" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I77" s="488" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J77" s="488" t="s">
         <v>334</v>
@@ -12395,17 +12402,17 @@
       <c r="L77" s="488"/>
       <c r="M77" s="489"/>
       <c r="N77" s="487" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O77" s="489"/>
       <c r="P77" s="487" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Q77" s="488" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R77" s="488" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
@@ -12419,19 +12426,19 @@
         <v>195</v>
       </c>
       <c r="D78" s="490" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E78" s="490" t="s">
         <v>14</v>
       </c>
       <c r="F78" s="490" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G78" s="490" t="s">
         <v>354</v>
       </c>
       <c r="H78" s="491" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I78" s="491" t="s">
         <v>338</v>
@@ -12445,17 +12452,17 @@
         <v>43164</v>
       </c>
       <c r="N78" s="490" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O78" s="492"/>
       <c r="P78" s="490" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="Q78" s="491" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R78" s="491" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
@@ -12473,7 +12480,7 @@
         <v>87</v>
       </c>
       <c r="F79" s="493" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G79" s="493" t="s">
         <v>271</v>
@@ -12482,7 +12489,7 @@
         <v>24</v>
       </c>
       <c r="I79" s="494" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J79" s="494" t="s">
         <v>313</v>
@@ -12497,7 +12504,7 @@
       <c r="P79" s="493"/>
       <c r="Q79" s="494"/>
       <c r="R79" s="494" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
@@ -12512,16 +12519,16 @@
       </c>
       <c r="D80" s="496"/>
       <c r="E80" s="496" t="s">
+        <v>608</v>
+      </c>
+      <c r="F80" s="496" t="s">
         <v>609</v>
-      </c>
-      <c r="F80" s="496" t="s">
-        <v>610</v>
       </c>
       <c r="G80" s="496" t="s">
         <v>381</v>
       </c>
       <c r="H80" s="497" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I80" s="497" t="s">
         <v>385</v>
@@ -12538,10 +12545,10 @@
       <c r="O80" s="498"/>
       <c r="P80" s="496"/>
       <c r="Q80" s="497" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="R80" s="497" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
@@ -12556,19 +12563,19 @@
       </c>
       <c r="D81" s="499"/>
       <c r="E81" s="499" t="s">
+        <v>479</v>
+      </c>
+      <c r="F81" s="499" t="s">
         <v>480</v>
       </c>
-      <c r="F81" s="499" t="s">
+      <c r="G81" s="499" t="s">
         <v>481</v>
-      </c>
-      <c r="G81" s="499" t="s">
-        <v>482</v>
       </c>
       <c r="H81" s="500" t="s">
         <v>401</v>
       </c>
       <c r="I81" s="500" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J81" s="500" t="s">
         <v>329</v>
@@ -12583,7 +12590,7 @@
       <c r="P81" s="499"/>
       <c r="Q81" s="500"/>
       <c r="R81" s="500" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
